--- a/docs/odh/shr-core-MedicationCodeOrReference-model.xlsx
+++ b/docs/odh/shr-core-MedicationCodeOrReference-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$4</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="52">
   <si>
     <t>Path</t>
   </si>
@@ -148,6 +148,32 @@
   </si>
   <si>
     <t>Code or Medication representing a choice of a medication code or reference.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>shr-core-MedicationCodeOrReference-model.valueCoding</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of codes drawn from different coding systems, representing the same concept.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://h7.org/fhir/us/core/ValueSet/us-core-medication-codes</t>
   </si>
 </sst>
 </file>
@@ -296,7 +322,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -305,8 +331,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.20703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.08984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.8359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -315,7 +341,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.8828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.46875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -329,7 +355,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -614,16 +640,14 @@
         <v>36</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AB3" s="2"/>
       <c r="AC3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>40</v>
@@ -641,8 +665,105 @@
         <v>36</v>
       </c>
     </row>
+    <row r="4" hidden="true">
+      <c r="A4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W4" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AI3">
+  <autoFilter ref="A1:AI4">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -652,7 +773,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI2">
+  <conditionalFormatting sqref="A2:AI3">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/odh/shr-core-MedicationCodeOrReference-model.xlsx
+++ b/docs/odh/shr-core-MedicationCodeOrReference-model.xlsx
@@ -144,7 +144,7 @@
   </si>
   <si>
     <t>Coding {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication-model]]}</t>
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Medication-model]]}</t>
   </si>
   <si>
     <t>Code or Medication representing a choice of a medication code or reference.</t>
@@ -170,7 +170,7 @@
     <t>A set of codes drawn from different coding systems, representing the same concept.</t>
   </si>
   <si>
-    <t>required</t>
+    <t>extensible</t>
   </si>
   <si>
     <t>http://h7.org/fhir/us/core/ValueSet/us-core-medication-codes</t>
@@ -322,7 +322,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
